--- a/data/trans_camb/P16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 5,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 2,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 9,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 8,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 6,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 4,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 2,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,71%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,01; 94,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,52; 41,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,95; 35,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,99; 182,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,4; 187,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,13; 140,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,0; 107,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 79,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,73; 43,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 10,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 3,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 4,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 4,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 5,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,88; 222,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,99; 181,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,57; 276,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,92; 88,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,15; 64,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,49; 72,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,91; 106,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 94,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,3; 112,86</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 5,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 4,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 3,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 2,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 2,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 2,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; 109,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,06; 93,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,03; 101,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,44; 43,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,88; 58,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,94; 39,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; 57,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,02; 50,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,38; 39,96</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 5,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 3,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 6,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 5,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 3,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 3,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 150,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,2; 114,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,27; 93,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 201,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 184,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 143,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,68; 131,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 104,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 98,12</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 6,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 4,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 2,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 3,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 6,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 6,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 4,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 3,41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,09; 125,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,96; 95,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,85; 39,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,44; 105,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 173,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,65; 182,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 92,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 94,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,99; 70,49</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 3,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 0,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; -2,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 4,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 4,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 3,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 3,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 1,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 0,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,2%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,96; 35,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,63; 6,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,98; -23,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,64; 81,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,08; 81,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; 61,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,48; 39,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 21,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,29; 1,43</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 2,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 3,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 3,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 3,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,45</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 62,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 33,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,13; 23,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,16; 54,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 56,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 39,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 49,18</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 35,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 23,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,58</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,97</t>
+          <t>-6,19; 2,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,74</t>
+          <t>-2,61; 7,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,66</t>
+          <t>-3,24; 2,91</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>-32,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>-8,57%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,95; 35,28</t>
+          <t>-76,75; 46,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 140,01</t>
+          <t>-35,6; 143,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 43,62</t>
+          <t>-43,13; 46,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,8</t>
+          <t>2,07; 11,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,2</t>
+          <t>-4,36; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,83</t>
+          <t>0,15; 6,04</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>128,61%</t>
+          <t>140,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>48,29%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 276,23</t>
+          <t>31,75; 302,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 72,04</t>
+          <t>-48,27; 50,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 112,86</t>
+          <t>1,66; 109,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,78</t>
+          <t>-1,39; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,18</t>
+          <t>-3,39; 2,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,26</t>
+          <t>-1,92; 2,3</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 101,46</t>
+          <t>-20,87; 100,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 39,96</t>
+          <t>-38,63; 39,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 39,96</t>
+          <t>-23,97; 40,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,55</t>
+          <t>-4,81; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,37</t>
+          <t>-0,45; 4,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,51</t>
+          <t>-1,84; 2,84</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 93,35</t>
+          <t>-68,56; 57,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 143,91</t>
+          <t>-7,87; 141,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 98,12</t>
+          <t>-31,02; 77,0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,01</t>
+          <t>-3,97; 2,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,51</t>
+          <t>0,74; 6,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,41</t>
+          <t>-0,87; 3,43</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,36%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 39,69</t>
+          <t>-46,74; 40,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,65; 182,47</t>
+          <t>11,42; 182,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 70,49</t>
+          <t>-11,54; 71,71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,9</t>
+          <t>-5,08; 5,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,54</t>
+          <t>-7,37; 1,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -2,49</t>
+          <t>-6,45; 1,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,48</t>
+          <t>-5,4; 2,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,48</t>
+          <t>-4,88; 3,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,2</t>
+          <t>-10,21; 0,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,21</t>
+          <t>-3,83; 2,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,78</t>
+          <t>-4,86; 1,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,16</t>
+          <t>-7,31; -0,03</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,2%</t>
+          <t>-24,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-44,27%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>-12,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>-38,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-18,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-20,99%</t>
+          <t>-31,29%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 35,54</t>
+          <t>-40,7; 71,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 6,96</t>
+          <t>-56,53; 22,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-59,98; -23,1</t>
+          <t>-49,17; 28,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 81,46</t>
+          <t>-51,81; 47,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 81,28</t>
+          <t>-46,58; 48,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 61,58</t>
+          <t>-81,7; 5,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 39,16</t>
+          <t>-35,72; 31,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 21,92</t>
+          <t>-42,62; 16,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 1,43</t>
+          <t>-65,39; -1,57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,9</t>
+          <t>-7,5; 6,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,15</t>
+          <t>-10,98; 1,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,46</t>
+          <t>-17,42; -6,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,2</t>
+          <t>0,85; 8,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,27</t>
+          <t>0,47; 8,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,26</t>
+          <t>0,43; 6,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,09</t>
+          <t>-1,3; 6,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,24</t>
+          <t>-2,75; 4,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,45</t>
+          <t>-4,88; 1,03</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>-27,1%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-65,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>-19,46%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-38,61; 48,11</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-53,1; 11,24</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-79,4; -44,97</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 276,7</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 269,62</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 266,49</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 80,96</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-24,2; 58,12</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-41,6; 13,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 3,9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 2,15</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 1,12</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 3,2</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,27</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,96</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 3,09</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 2,24</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 1,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>36,48%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-4,5%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>29,68%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>33,05%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>14,49; 62,05</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-7,15; 33,99</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-17,13; 23,18</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-27,09; 17,39</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>7,16; 54,85</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>8,7; 56,66</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 39,46</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 33,55</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>17,75; 49,18</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>6,72; 35,94</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 23,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-11,98; 19,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,36</t>
+          <t>-1,47; 5,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,34</t>
+          <t>-4,39; 2,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,44</t>
+          <t>-6,01; 2,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,55</t>
+          <t>1,88; 9,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,96</t>
+          <t>1,45; 9,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,73</t>
+          <t>-2,65; 7,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,37</t>
+          <t>1,08; 6,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,5</t>
+          <t>-0,48; 4,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,91</t>
+          <t>-3,53; 2,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 94,8</t>
+          <t>-18,37; 105,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 41,78</t>
+          <t>-50,19; 39,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 46,68</t>
+          <t>-75,7; 48,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 182,77</t>
+          <t>21,07; 193,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 187,61</t>
+          <t>13,15; 183,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,6; 143,33</t>
+          <t>-39,01; 142,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 107,21</t>
+          <t>13,03; 111,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 79,19</t>
+          <t>-6,49; 72,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 46,65</t>
+          <t>-45,94; 51,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,68</t>
+          <t>2,12; 7,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,78</t>
+          <t>1,4; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,61</t>
+          <t>2,82; 11,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,17</t>
+          <t>-1,72; 4,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,94</t>
+          <t>-2,63; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,09</t>
+          <t>-4,4; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,31</t>
+          <t>1,44; 5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,84</t>
+          <t>0,52; 4,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,04</t>
+          <t>0,05; 5,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,88; 222,86</t>
+          <t>36,22; 210,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 181,05</t>
+          <t>23,57; 202,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 302,51</t>
+          <t>51,19; 296,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 88,45</t>
+          <t>-18,85; 79,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 64,64</t>
+          <t>-27,9; 60,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 50,54</t>
+          <t>-48,42; 50,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 106,12</t>
+          <t>17,39; 102,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 94,75</t>
+          <t>7,33; 92,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 109,69</t>
+          <t>0,05; 103,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,15</t>
+          <t>-0,54; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,13</t>
+          <t>-1,7; 3,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,75</t>
+          <t>-1,17; 4,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,63</t>
+          <t>-3,03; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,57</t>
+          <t>-2,7; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,13</t>
+          <t>-3,5; 1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,19</t>
+          <t>-1,32; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,97</t>
+          <t>-1,12; 2,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,3</t>
+          <t>-1,71; 2,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 109,42</t>
+          <t>-8,99; 105,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 93,92</t>
+          <t>-22,82; 82,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 100,59</t>
+          <t>-16,67; 99,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 43,86</t>
+          <t>-32,85; 44,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 58,09</t>
+          <t>-29,76; 57,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 39,88</t>
+          <t>-37,43; 34,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 57,4</t>
+          <t>-17,29; 48,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 50,52</t>
+          <t>-15,84; 48,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 40,46</t>
+          <t>-21,18; 40,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,75</t>
+          <t>-0,32; 5,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,09</t>
+          <t>-1,91; 4,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,43</t>
+          <t>-4,69; 2,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,07</t>
+          <t>0,55; 6,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,45</t>
+          <t>-0,06; 5,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,18</t>
+          <t>-0,52; 4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,05</t>
+          <t>0,71; 5,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,76</t>
+          <t>-0,23; 3,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,84</t>
+          <t>-2,09; 2,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 150,51</t>
+          <t>-7,69; 158,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 114,72</t>
+          <t>-28,02; 109,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 57,18</t>
+          <t>-64,27; 64,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 201,78</t>
+          <t>2,94; 210,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 184,97</t>
+          <t>-2,08; 193,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 141,08</t>
+          <t>-9,66; 146,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,68; 131,59</t>
+          <t>12,41; 141,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 104,38</t>
+          <t>-4,22; 109,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 77,0</t>
+          <t>-34,33; 68,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,63</t>
+          <t>-1,58; 6,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,54</t>
+          <t>-2,98; 4,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,09</t>
+          <t>-4,23; 1,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,86</t>
+          <t>-2,49; 3,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,48</t>
+          <t>-0,47; 6,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,49</t>
+          <t>0,63; 6,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,62</t>
+          <t>-0,86; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,52</t>
+          <t>-0,69; 4,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,43</t>
+          <t>-0,6; 3,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 125,81</t>
+          <t>-20,03; 131,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 95,13</t>
+          <t>-35,82; 86,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 40,76</t>
+          <t>-48,15; 41,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 105,16</t>
+          <t>-36,77; 101,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 173,11</t>
+          <t>-10,87; 164,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,42; 182,88</t>
+          <t>7,62; 166,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 92,71</t>
+          <t>-13,21; 86,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 94,82</t>
+          <t>-10,31; 91,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 71,71</t>
+          <t>-8,18; 73,77</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,42</t>
+          <t>-4,32; 5,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,65</t>
+          <t>-6,81; 2,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,84</t>
+          <t>-6,59; 1,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,78</t>
+          <t>-5,08; 2,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,01</t>
+          <t>-5,05; 2,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 0,41</t>
+          <t>-9,65; 0,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,46</t>
+          <t>-3,52; 2,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,15</t>
+          <t>-4,62; 1,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -0,03</t>
+          <t>-6,98; 0,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 71,98</t>
+          <t>-35,52; 68,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 22,73</t>
+          <t>-55,75; 30,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 28,57</t>
+          <t>-49,59; 24,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 47,25</t>
+          <t>-48,19; 43,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 48,82</t>
+          <t>-48,37; 49,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,7; 5,21</t>
+          <t>-78,57; 7,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 31,76</t>
+          <t>-33,52; 35,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 16,12</t>
+          <t>-41,69; 20,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -1,57</t>
+          <t>-63,28; -0,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 6,29</t>
+          <t>-8,38; 5,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 1,51</t>
+          <t>-10,32; 1,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -6,11</t>
+          <t>-16,86; -6,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,47</t>
+          <t>0,83; 8,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,6</t>
+          <t>0,45; 8,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,93</t>
+          <t>0,98; 6,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,11</t>
+          <t>-1,44; 6,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 4,58</t>
+          <t>-2,91; 4,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,03</t>
+          <t>-4,76; 0,99</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 48,11</t>
+          <t>-42,0; 41,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 11,24</t>
+          <t>-51,24; 13,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-79,4; -44,97</t>
+          <t>-78,92; -44,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,34; 276,7</t>
+          <t>4,89; 261,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,22; 269,62</t>
+          <t>1,64; 280,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,72; 266,49</t>
+          <t>13,64; 257,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 80,96</t>
+          <t>-12,65; 79,42</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 58,12</t>
+          <t>-26,11; 63,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 13,72</t>
+          <t>-40,7; 13,48</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,9</t>
+          <t>1,19; 3,97</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,15</t>
+          <t>-0,51; 2,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,12</t>
+          <t>-2,0; 1,11</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,2</t>
+          <t>0,7; 3,29</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,27</t>
+          <t>0,47; 3,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,96</t>
+          <t>-0,99; 2,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,09</t>
+          <t>1,29; 3,08</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,24</t>
+          <t>0,47; 2,22</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,24</t>
+          <t>-0,81; 1,33</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,49; 62,05</t>
+          <t>15,76; 61,9</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 33,99</t>
+          <t>-6,95; 36,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 17,39</t>
+          <t>-27,63; 17,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,16; 54,85</t>
+          <t>9,78; 56,37</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,7; 56,66</t>
+          <t>6,59; 54,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 33,55</t>
+          <t>-13,07; 34,57</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,75; 49,18</t>
+          <t>17,82; 48,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,72; 35,94</t>
+          <t>6,53; 35,43</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 19,69</t>
+          <t>-11,31; 21,44</t>
         </is>
       </c>
     </row>
